--- a/DataImporting/Files/Coaches1.xlsx
+++ b/DataImporting/Files/Coaches1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\evert\source\repos\H5-Project\DataImporting\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CCE7A98-5813-4BFF-AC35-1080BA608493}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A8293F6-E211-473D-A2FC-AFC3E76E94A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{18D7E2DE-F5B1-46C1-82A9-451718552012}"/>
+    <workbookView xWindow="17625" yWindow="3930" windowWidth="21600" windowHeight="11385" xr2:uid="{18D7E2DE-F5B1-46C1-82A9-451718552012}"/>
   </bookViews>
   <sheets>
     <sheet name="Coaches" sheetId="1" r:id="rId1"/>
@@ -35,15 +35,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>naam, docentcode</t>
   </si>
   <si>
-    <t>Henk Bos, BHK01</t>
+    <t>Klaas Arend, BHK04</t>
   </si>
   <si>
-    <t>Piet Post, BHK02</t>
+    <t>Arend Klaassen, BHK03</t>
+  </si>
+  <si>
+    <t>Piet Post, BHK01</t>
+  </si>
+  <si>
+    <t>Willem Jantje, BHK02</t>
   </si>
 </sst>
 </file>
@@ -406,7 +412,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -425,20 +431,24 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
